--- a/openpyxl/test1.xlsx
+++ b/openpyxl/test1.xlsx
@@ -9,14 +9,14 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="#\ ##0.00\ \€"/>
+    <numFmt numFmtId="164" formatCode="#\ ###\ ##0.00\ \€"/>
     <numFmt numFmtId="165" formatCode="# ##0.00 €"/>
     <numFmt numFmtId="166" formatCode="# ### ##0.00 €"/>
   </numFmts>
@@ -78,18 +78,18 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,60 +365,560 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H18" sqref="A1:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="16.42578125" customWidth="1" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" min="3" max="3"/>
-    <col width="18.140625" customWidth="1" min="4" max="4"/>
+    <col width="16.42578125" customWidth="1" style="4" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="4" min="3" max="3"/>
+    <col width="18.140625" customWidth="1" style="4" min="4" max="4"/>
+    <col width="13" customWidth="1" style="2" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1" s="4">
       <c r="A1" s="7" t="inlineStr">
         <is>
           <t>HELLO</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="8" t="inlineStr">
+      <c r="F1" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1" s="8" t="n"/>
+      <c r="H1" s="8" t="n"/>
+    </row>
+    <row r="2" ht="18" customHeight="1" s="4">
+      <c r="A2" s="9" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-    </row>
-    <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="9" t="inlineStr">
+      <c r="F2" s="8" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="G2" s="8" t="n"/>
+      <c r="H2" s="8" t="n"/>
+    </row>
+    <row r="3" ht="19.5" customHeight="1" s="4">
+      <c r="A3" s="10" t="inlineStr">
         <is>
           <t>OPENPYXLS</t>
         </is>
       </c>
-      <c r="B3" s="10" t="n">
+      <c r="B3" s="11" t="n">
         <v>32.56</v>
       </c>
-      <c r="C3" s="11" t="n">
+      <c r="C3" s="12" t="n">
         <v>32.55</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="8" t="n">
         <v>15255487.54</v>
       </c>
+      <c r="F3" s="8" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="G3" s="8" t="n"/>
+      <c r="H3" s="8" t="n"/>
     </row>
     <row r="4">
-      <c r="D4" s="6" t="n"/>
+      <c r="F4" s="8" t="n">
+        <v>210</v>
+      </c>
+      <c r="G4" s="8" t="n"/>
+      <c r="H4" s="8" t="n"/>
     </row>
     <row r="5">
-      <c r="D5" s="6" t="n"/>
+      <c r="F5" s="8" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="G5" s="8" t="n"/>
+      <c r="H5" s="8" t="n"/>
     </row>
     <row r="6">
-      <c r="D6" s="6" t="n"/>
+      <c r="F6" s="8" t="n">
+        <v>55555.23</v>
+      </c>
+      <c r="G6" s="8" t="n"/>
+      <c r="H6" s="8" t="n"/>
     </row>
     <row r="7">
-      <c r="D7" s="6" t="n"/>
+      <c r="F7" s="8" t="n">
+        <v>10000.2</v>
+      </c>
+      <c r="G7" s="8" t="n"/>
+      <c r="H7" s="8" t="n"/>
+    </row>
+    <row r="8">
+      <c r="F8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8" t="n"/>
+      <c r="H8" s="8" t="n"/>
+    </row>
+    <row r="9">
+      <c r="F9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8" t="n"/>
+      <c r="H9" s="8" t="n"/>
+    </row>
+    <row r="10">
+      <c r="F10" s="8" t="n">
+        <v>258.96</v>
+      </c>
+      <c r="G10" s="8" t="n"/>
+      <c r="H10" s="8" t="n"/>
+    </row>
+    <row r="11">
+      <c r="F11" s="8" t="n">
+        <v>547893125.25</v>
+      </c>
+      <c r="G11" s="8" t="n"/>
+      <c r="H11" s="8" t="n"/>
+    </row>
+    <row r="12">
+      <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
+      <c r="H12" s="8" t="n"/>
+    </row>
+    <row r="13">
+      <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
+      <c r="H13" s="8" t="n"/>
+    </row>
+    <row r="14">
+      <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
+      <c r="H14" s="8" t="n"/>
+    </row>
+    <row r="15">
+      <c r="F15" s="8" t="n"/>
+      <c r="G15" s="8" t="n"/>
+      <c r="H15" s="8" t="n"/>
+    </row>
+    <row r="16">
+      <c r="F16" s="8" t="n"/>
+      <c r="G16" s="8" t="n"/>
+      <c r="H16" s="8" t="n"/>
+    </row>
+    <row r="17">
+      <c r="F17" s="8" t="n"/>
+      <c r="G17" s="8" t="n"/>
+      <c r="H17" s="8" t="n"/>
+    </row>
+    <row r="18">
+      <c r="F18" s="8" t="n"/>
+      <c r="G18" s="8" t="n"/>
+      <c r="H18" s="8" t="n"/>
+    </row>
+    <row r="19">
+      <c r="F19" s="8" t="n"/>
+      <c r="G19" s="8" t="n"/>
+      <c r="H19" s="8" t="n"/>
+    </row>
+    <row r="20">
+      <c r="F20" s="8" t="n"/>
+      <c r="G20" s="8" t="n"/>
+      <c r="H20" s="8" t="n"/>
+    </row>
+    <row r="21">
+      <c r="F21" s="8" t="n"/>
+      <c r="G21" s="8" t="n"/>
+      <c r="H21" s="8" t="n"/>
+    </row>
+    <row r="22">
+      <c r="F22" s="8" t="n"/>
+      <c r="G22" s="8" t="n"/>
+      <c r="H22" s="8" t="n"/>
+    </row>
+    <row r="23">
+      <c r="F23" s="8" t="n"/>
+      <c r="G23" s="8" t="n"/>
+      <c r="H23" s="8" t="n"/>
+    </row>
+    <row r="24">
+      <c r="F24" s="8" t="n"/>
+      <c r="G24" s="8" t="n"/>
+      <c r="H24" s="8" t="n"/>
+    </row>
+    <row r="25">
+      <c r="F25" s="8" t="n"/>
+      <c r="G25" s="8" t="n"/>
+      <c r="H25" s="8" t="n"/>
+    </row>
+    <row r="26">
+      <c r="F26" s="8" t="n"/>
+      <c r="G26" s="8" t="n"/>
+      <c r="H26" s="8" t="n"/>
+    </row>
+    <row r="27">
+      <c r="F27" s="8" t="n"/>
+      <c r="G27" s="8" t="n"/>
+      <c r="H27" s="8" t="n"/>
+    </row>
+    <row r="28">
+      <c r="F28" s="8" t="n"/>
+      <c r="G28" s="8" t="n"/>
+      <c r="H28" s="8" t="n"/>
+    </row>
+    <row r="29">
+      <c r="F29" s="8" t="n"/>
+      <c r="G29" s="8" t="n"/>
+      <c r="H29" s="8" t="n"/>
+    </row>
+    <row r="30">
+      <c r="F30" s="8" t="n"/>
+      <c r="G30" s="8" t="n"/>
+      <c r="H30" s="8" t="n"/>
+    </row>
+    <row r="31">
+      <c r="F31" s="8" t="n"/>
+      <c r="G31" s="8" t="n"/>
+      <c r="H31" s="8" t="n"/>
+    </row>
+    <row r="32">
+      <c r="F32" s="8" t="n"/>
+      <c r="G32" s="8" t="n"/>
+      <c r="H32" s="8" t="n"/>
+    </row>
+    <row r="33">
+      <c r="F33" s="8" t="n"/>
+      <c r="G33" s="8" t="n"/>
+      <c r="H33" s="8" t="n"/>
+    </row>
+    <row r="34">
+      <c r="F34" s="8" t="n"/>
+      <c r="G34" s="8" t="n"/>
+      <c r="H34" s="8" t="n"/>
+    </row>
+    <row r="35">
+      <c r="F35" s="8" t="n"/>
+      <c r="G35" s="8" t="n"/>
+      <c r="H35" s="8" t="n"/>
+    </row>
+    <row r="36">
+      <c r="F36" s="8" t="n"/>
+      <c r="G36" s="8" t="n"/>
+      <c r="H36" s="8" t="n"/>
+    </row>
+    <row r="37">
+      <c r="F37" s="8" t="n"/>
+      <c r="G37" s="8" t="n"/>
+      <c r="H37" s="8" t="n"/>
+    </row>
+    <row r="38">
+      <c r="F38" s="8" t="n"/>
+      <c r="G38" s="8" t="n"/>
+      <c r="H38" s="8" t="n"/>
+    </row>
+    <row r="39">
+      <c r="F39" s="8" t="n"/>
+      <c r="G39" s="8" t="n"/>
+      <c r="H39" s="8" t="n"/>
+    </row>
+    <row r="40">
+      <c r="F40" s="8" t="n"/>
+      <c r="G40" s="8" t="n"/>
+      <c r="H40" s="8" t="n"/>
+    </row>
+    <row r="41">
+      <c r="F41" s="8" t="n"/>
+      <c r="G41" s="8" t="n"/>
+      <c r="H41" s="8" t="n"/>
+    </row>
+    <row r="42">
+      <c r="F42" s="8" t="n"/>
+      <c r="G42" s="8" t="n"/>
+      <c r="H42" s="8" t="n"/>
+    </row>
+    <row r="43">
+      <c r="F43" s="8" t="n"/>
+      <c r="G43" s="8" t="n"/>
+      <c r="H43" s="8" t="n"/>
+    </row>
+    <row r="44">
+      <c r="F44" s="8" t="n"/>
+      <c r="G44" s="8" t="n"/>
+      <c r="H44" s="8" t="n"/>
+    </row>
+    <row r="45">
+      <c r="F45" s="8" t="n"/>
+      <c r="G45" s="8" t="n"/>
+      <c r="H45" s="8" t="n"/>
+    </row>
+    <row r="46">
+      <c r="F46" s="8" t="n"/>
+      <c r="G46" s="8" t="n"/>
+      <c r="H46" s="8" t="n"/>
+    </row>
+    <row r="47">
+      <c r="F47" s="8" t="n"/>
+      <c r="G47" s="8" t="n"/>
+      <c r="H47" s="8" t="n"/>
+    </row>
+    <row r="48">
+      <c r="F48" s="8" t="n"/>
+      <c r="G48" s="8" t="n"/>
+      <c r="H48" s="8" t="n"/>
+    </row>
+    <row r="49">
+      <c r="F49" s="8" t="n"/>
+      <c r="G49" s="8" t="n"/>
+      <c r="H49" s="8" t="n"/>
+    </row>
+    <row r="50">
+      <c r="F50" s="8" t="n"/>
+      <c r="G50" s="8" t="n"/>
+      <c r="H50" s="8" t="n"/>
+    </row>
+    <row r="51">
+      <c r="F51" s="8" t="n"/>
+      <c r="G51" s="8" t="n"/>
+      <c r="H51" s="8" t="n"/>
+    </row>
+    <row r="52">
+      <c r="F52" s="8" t="n"/>
+      <c r="G52" s="8" t="n"/>
+      <c r="H52" s="8" t="n"/>
+    </row>
+    <row r="53">
+      <c r="F53" s="8" t="n"/>
+      <c r="G53" s="8" t="n"/>
+      <c r="H53" s="8" t="n"/>
+    </row>
+    <row r="54">
+      <c r="F54" s="8" t="n"/>
+      <c r="G54" s="8" t="n"/>
+      <c r="H54" s="8" t="n"/>
+    </row>
+    <row r="55">
+      <c r="F55" s="8" t="n"/>
+      <c r="G55" s="8" t="n"/>
+      <c r="H55" s="8" t="n"/>
+    </row>
+    <row r="56">
+      <c r="F56" s="8" t="n"/>
+      <c r="G56" s="8" t="n"/>
+      <c r="H56" s="8" t="n"/>
+    </row>
+    <row r="57">
+      <c r="F57" s="8" t="n"/>
+      <c r="G57" s="8" t="n"/>
+      <c r="H57" s="8" t="n"/>
+    </row>
+    <row r="58">
+      <c r="F58" s="8" t="n"/>
+      <c r="G58" s="8" t="n"/>
+      <c r="H58" s="8" t="n"/>
+    </row>
+    <row r="59">
+      <c r="F59" s="8" t="n"/>
+      <c r="G59" s="8" t="n"/>
+      <c r="H59" s="8" t="n"/>
+    </row>
+    <row r="60">
+      <c r="F60" s="8" t="n"/>
+      <c r="G60" s="8" t="n"/>
+      <c r="H60" s="8" t="n"/>
+    </row>
+    <row r="61">
+      <c r="F61" s="8" t="n"/>
+      <c r="G61" s="8" t="n"/>
+      <c r="H61" s="8" t="n"/>
+    </row>
+    <row r="62">
+      <c r="F62" s="8" t="n"/>
+      <c r="G62" s="8" t="n"/>
+      <c r="H62" s="8" t="n"/>
+    </row>
+    <row r="63">
+      <c r="F63" s="8" t="n"/>
+      <c r="G63" s="8" t="n"/>
+      <c r="H63" s="8" t="n"/>
+    </row>
+    <row r="64">
+      <c r="F64" s="8" t="n"/>
+      <c r="G64" s="8" t="n"/>
+      <c r="H64" s="8" t="n"/>
+    </row>
+    <row r="65">
+      <c r="F65" s="8" t="n"/>
+      <c r="G65" s="8" t="n"/>
+      <c r="H65" s="8" t="n"/>
+    </row>
+    <row r="66">
+      <c r="F66" s="8" t="n"/>
+      <c r="G66" s="8" t="n"/>
+      <c r="H66" s="8" t="n"/>
+    </row>
+    <row r="67">
+      <c r="F67" s="8" t="n"/>
+      <c r="G67" s="8" t="n"/>
+      <c r="H67" s="8" t="n"/>
+    </row>
+    <row r="68">
+      <c r="F68" s="8" t="n"/>
+      <c r="G68" s="8" t="n"/>
+      <c r="H68" s="8" t="n"/>
+    </row>
+    <row r="69">
+      <c r="F69" s="8" t="n"/>
+      <c r="G69" s="8" t="n"/>
+      <c r="H69" s="8" t="n"/>
+    </row>
+    <row r="70">
+      <c r="F70" s="8" t="n"/>
+      <c r="G70" s="8" t="n"/>
+      <c r="H70" s="8" t="n"/>
+    </row>
+    <row r="71">
+      <c r="F71" s="8" t="n"/>
+      <c r="G71" s="8" t="n"/>
+      <c r="H71" s="8" t="n"/>
+    </row>
+    <row r="72">
+      <c r="F72" s="8" t="n"/>
+      <c r="G72" s="8" t="n"/>
+      <c r="H72" s="8" t="n"/>
+    </row>
+    <row r="73">
+      <c r="F73" s="8" t="n"/>
+      <c r="G73" s="8" t="n"/>
+      <c r="H73" s="8" t="n"/>
+    </row>
+    <row r="74">
+      <c r="F74" s="8" t="n"/>
+      <c r="G74" s="8" t="n"/>
+      <c r="H74" s="8" t="n"/>
+    </row>
+    <row r="75">
+      <c r="F75" s="8" t="n"/>
+      <c r="G75" s="8" t="n"/>
+      <c r="H75" s="8" t="n"/>
+    </row>
+    <row r="76">
+      <c r="F76" s="8" t="n"/>
+      <c r="G76" s="8" t="n"/>
+      <c r="H76" s="8" t="n"/>
+    </row>
+    <row r="77">
+      <c r="F77" s="8" t="n"/>
+      <c r="G77" s="8" t="n"/>
+      <c r="H77" s="8" t="n"/>
+    </row>
+    <row r="78">
+      <c r="F78" s="8" t="n"/>
+      <c r="G78" s="8" t="n"/>
+      <c r="H78" s="8" t="n"/>
+    </row>
+    <row r="79">
+      <c r="F79" s="8" t="n"/>
+      <c r="G79" s="8" t="n"/>
+      <c r="H79" s="8" t="n"/>
+    </row>
+    <row r="80">
+      <c r="F80" s="8" t="n"/>
+      <c r="G80" s="8" t="n"/>
+      <c r="H80" s="8" t="n"/>
+    </row>
+    <row r="81">
+      <c r="F81" s="8" t="n"/>
+      <c r="G81" s="8" t="n"/>
+      <c r="H81" s="8" t="n"/>
+    </row>
+    <row r="82">
+      <c r="F82" s="8" t="n"/>
+      <c r="G82" s="8" t="n"/>
+      <c r="H82" s="8" t="n"/>
+    </row>
+    <row r="83">
+      <c r="F83" s="8" t="n"/>
+      <c r="G83" s="8" t="n"/>
+      <c r="H83" s="8" t="n"/>
+    </row>
+    <row r="84">
+      <c r="F84" s="8" t="n"/>
+      <c r="G84" s="8" t="n"/>
+      <c r="H84" s="8" t="n"/>
+    </row>
+    <row r="85">
+      <c r="F85" s="8" t="n"/>
+      <c r="G85" s="8" t="n"/>
+      <c r="H85" s="8" t="n"/>
+    </row>
+    <row r="86">
+      <c r="F86" s="8" t="n"/>
+      <c r="G86" s="8" t="n"/>
+      <c r="H86" s="8" t="n"/>
+    </row>
+    <row r="87">
+      <c r="F87" s="8" t="n"/>
+      <c r="G87" s="8" t="n"/>
+      <c r="H87" s="8" t="n"/>
+    </row>
+    <row r="88">
+      <c r="F88" s="8" t="n"/>
+      <c r="G88" s="8" t="n"/>
+      <c r="H88" s="8" t="n"/>
+    </row>
+    <row r="89">
+      <c r="F89" s="8" t="n"/>
+      <c r="G89" s="8" t="n"/>
+      <c r="H89" s="8" t="n"/>
+    </row>
+    <row r="90">
+      <c r="F90" s="8" t="n"/>
+      <c r="G90" s="8" t="n"/>
+      <c r="H90" s="8" t="n"/>
+    </row>
+    <row r="91">
+      <c r="F91" s="8" t="n"/>
+      <c r="G91" s="8" t="n"/>
+      <c r="H91" s="8" t="n"/>
+    </row>
+    <row r="92">
+      <c r="F92" s="8" t="n"/>
+      <c r="G92" s="8" t="n"/>
+      <c r="H92" s="8" t="n"/>
+    </row>
+    <row r="93">
+      <c r="F93" s="8" t="n"/>
+      <c r="G93" s="8" t="n"/>
+      <c r="H93" s="8" t="n"/>
+    </row>
+    <row r="94">
+      <c r="F94" s="8" t="n"/>
+      <c r="G94" s="8" t="n"/>
+      <c r="H94" s="8" t="n"/>
+    </row>
+    <row r="95">
+      <c r="F95" s="8" t="n"/>
+      <c r="G95" s="8" t="n"/>
+      <c r="H95" s="8" t="n"/>
+    </row>
+    <row r="96">
+      <c r="F96" s="8" t="n"/>
+      <c r="G96" s="8" t="n"/>
+      <c r="H96" s="8" t="n"/>
+    </row>
+    <row r="97">
+      <c r="F97" s="8" t="n"/>
+      <c r="G97" s="8" t="n"/>
+      <c r="H97" s="8" t="n"/>
+    </row>
+    <row r="98">
+      <c r="F98" s="8" t="n"/>
+      <c r="G98" s="8" t="n"/>
+      <c r="H98" s="8" t="n"/>
+    </row>
+    <row r="99">
+      <c r="F99" s="8" t="n"/>
+      <c r="G99" s="8" t="n"/>
+      <c r="H99" s="8" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
